--- a/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34407</v>
+        <v>35156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62262</v>
+        <v>62459</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06812918990759928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04981376494476843</v>
+        <v>0.05089801627191068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09014256216198953</v>
+        <v>0.09042709779678154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -762,19 +762,19 @@
         <v>46667</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36327</v>
+        <v>35228</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60558</v>
+        <v>59476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06375760795472914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04963043152750735</v>
+        <v>0.04812856140191759</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08273485223694295</v>
+        <v>0.08125698723192983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -783,19 +783,19 @@
         <v>93725</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76811</v>
+        <v>77053</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112330</v>
+        <v>115819</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06588003457238681</v>
+        <v>0.06588003457238682</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05399116614253451</v>
+        <v>0.05416119951167889</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07895761292884168</v>
+        <v>0.0814103033171213</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>12526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6764</v>
+        <v>6782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21044</v>
+        <v>20835</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01813443737396711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009793258775557359</v>
+        <v>0.009819400007044104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0304666100353076</v>
+        <v>0.03016484849942499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -833,19 +833,19 @@
         <v>13620</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8690</v>
+        <v>8944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20298</v>
+        <v>20789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01860814070774153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0118718214552286</v>
+        <v>0.01221985315126081</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02773144083714418</v>
+        <v>0.02840262294760957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -854,19 +854,19 @@
         <v>26146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18351</v>
+        <v>17327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37498</v>
+        <v>34997</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01837815518412212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01289924438196593</v>
+        <v>0.01217935959448409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02635742645059328</v>
+        <v>0.02459936406504432</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>163438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>143026</v>
+        <v>143070</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>186352</v>
+        <v>188547</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2366225652286535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2070707973965533</v>
+        <v>0.2071348621578492</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2697970929429523</v>
+        <v>0.2729757392977626</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>356</v>
@@ -904,19 +904,19 @@
         <v>191617</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>172823</v>
+        <v>172915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210959</v>
+        <v>214510</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2617899252650023</v>
+        <v>0.2617899252650024</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2361130401615344</v>
+        <v>0.2362387786857228</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2882152259544162</v>
+        <v>0.2930666375714594</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>561</v>
@@ -925,19 +925,19 @@
         <v>355055</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>326706</v>
+        <v>328846</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>385692</v>
+        <v>384324</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2495710362190699</v>
+        <v>0.2495710362190698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2296441921181019</v>
+        <v>0.231148838197994</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.271105889878017</v>
+        <v>0.2701445959028375</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>467689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>441220</v>
+        <v>441648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>492819</v>
+        <v>493937</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.67711380748978</v>
+        <v>0.6771138074897801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6387917471050756</v>
+        <v>0.6394115322014446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7134956240639624</v>
+        <v>0.7151149130934544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>794</v>
@@ -975,19 +975,19 @@
         <v>480046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>457345</v>
+        <v>457127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>499821</v>
+        <v>501077</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6558443260725269</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6248301189969914</v>
+        <v>0.6245328778406369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6828613215726725</v>
+        <v>0.6845777703988917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1261</v>
@@ -996,19 +996,19 @@
         <v>947735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>917569</v>
+        <v>914261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>979019</v>
+        <v>980676</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.666170774024421</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6449670116746504</v>
+        <v>0.6426418283769322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6881602175079531</v>
+        <v>0.6893251873907025</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>101255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81982</v>
+        <v>79524</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>124845</v>
+        <v>124582</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09653311592369816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07815860279019213</v>
+        <v>0.07581496613019965</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1190228828688174</v>
+        <v>0.1187723435430665</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>155</v>
@@ -1121,19 +1121,19 @@
         <v>118998</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>98467</v>
+        <v>101205</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>138373</v>
+        <v>141008</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1111893738272387</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09200555973584061</v>
+        <v>0.09456397160881982</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.129293572335431</v>
+        <v>0.1317551537009305</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>246</v>
@@ -1142,19 +1142,19 @@
         <v>220253</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>192436</v>
+        <v>191892</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>250068</v>
+        <v>256114</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1039349306674038</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09080837744179265</v>
+        <v>0.09055164964701537</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1180041131494997</v>
+        <v>0.1208572153311443</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>37485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26529</v>
+        <v>26506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51207</v>
+        <v>52718</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03573704949401833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02529165130845579</v>
+        <v>0.02526955395764378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04881877951092385</v>
+        <v>0.05025943542267915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1192,19 +1192,19 @@
         <v>42628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32903</v>
+        <v>31857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55337</v>
+        <v>54343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0398305282560182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03074386935422602</v>
+        <v>0.02976663468917261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05170548028226455</v>
+        <v>0.05077717928009013</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1213,19 +1213,19 @@
         <v>80113</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65378</v>
+        <v>63825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98512</v>
+        <v>98538</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03780436924596519</v>
+        <v>0.03780436924596518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03085108882449284</v>
+        <v>0.03011852771523236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04648668625949445</v>
+        <v>0.0464988729692959</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>228780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>198724</v>
+        <v>201851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257768</v>
+        <v>260537</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2181109868322932</v>
+        <v>0.2181109868322933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1894561640314645</v>
+        <v>0.1924378008146201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2457465388599189</v>
+        <v>0.2483864379379603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>415</v>
@@ -1263,19 +1263,19 @@
         <v>275514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249935</v>
+        <v>252486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>300444</v>
+        <v>299694</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2574356758119623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2335348947268333</v>
+        <v>0.2359180695094041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2807293186196914</v>
+        <v>0.2800287888460213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -1284,19 +1284,19 @@
         <v>504295</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>468976</v>
+        <v>469314</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>544184</v>
+        <v>543082</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2379710401008044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2213046384847459</v>
+        <v>0.2214640932243284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2567944132710386</v>
+        <v>0.2562743340493613</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>681396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>646773</v>
+        <v>646141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>713681</v>
+        <v>713070</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6496188477499902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6166105930598695</v>
+        <v>0.6160079422283185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6803980535840086</v>
+        <v>0.6798154422299593</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>887</v>
@@ -1334,19 +1334,19 @@
         <v>633086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>602880</v>
+        <v>602966</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>661603</v>
+        <v>658812</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5915444221047809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.56332002627348</v>
+        <v>0.5634008114121338</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6181902466611443</v>
+        <v>0.6155818914684188</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1490</v>
@@ -1355,19 +1355,19 @@
         <v>1314482</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1268633</v>
+        <v>1270992</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1356421</v>
+        <v>1363971</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6202896599858267</v>
+        <v>0.6202896599858266</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5986540072238571</v>
+        <v>0.5997671804764572</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6400801561533747</v>
+        <v>0.6436429725102201</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>77791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59208</v>
+        <v>59001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98843</v>
+        <v>100374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09686669300537527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07372731204425871</v>
+        <v>0.07346925291579801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1230805763408901</v>
+        <v>0.1249876938595416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1480,19 +1480,19 @@
         <v>69776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53322</v>
+        <v>55366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87208</v>
+        <v>86620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08598027785545814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06570443675186548</v>
+        <v>0.06822340425927835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1074608789202157</v>
+        <v>0.106735472933427</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -1501,19 +1501,19 @@
         <v>147567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122784</v>
+        <v>124232</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174398</v>
+        <v>175687</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.091394954044453</v>
+        <v>0.09139495404445298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07604575087061476</v>
+        <v>0.07694276820378661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1080126666368767</v>
+        <v>0.1088110291271299</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>14937</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8631</v>
+        <v>8639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24275</v>
+        <v>24378</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01859935723073306</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01074747658762551</v>
+        <v>0.01075688778612337</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03022730244926317</v>
+        <v>0.03035593247652516</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>34</v>
@@ -1551,19 +1551,19 @@
         <v>28293</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19765</v>
+        <v>18890</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38347</v>
+        <v>40023</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03486396630192041</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02435479003396171</v>
+        <v>0.02327683643908911</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04725268286517489</v>
+        <v>0.04931750720725348</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -1572,19 +1572,19 @@
         <v>43230</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>32479</v>
+        <v>32093</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>57411</v>
+        <v>56406</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02677428845588141</v>
+        <v>0.02677428845588142</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02011570597786841</v>
+        <v>0.01987671347686259</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03555722060240869</v>
+        <v>0.03493461089456271</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>173572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150119</v>
+        <v>148503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199021</v>
+        <v>198898</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2161349766722861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1869312314378648</v>
+        <v>0.1849184688358823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2478244484305519</v>
+        <v>0.2476712272229698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -1622,19 +1622,19 @@
         <v>196507</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175645</v>
+        <v>177229</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218045</v>
+        <v>221537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2421423836357589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2164347275376338</v>
+        <v>0.2183865931268156</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2686821158716103</v>
+        <v>0.2729853756786306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>446</v>
@@ -1643,19 +1643,19 @@
         <v>370079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>336305</v>
+        <v>337392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>401320</v>
+        <v>407114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2292068410091591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2082887917639703</v>
+        <v>0.2089619832308465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2485553105298304</v>
+        <v>0.2521442662625514</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>536773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>505752</v>
+        <v>507007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564542</v>
+        <v>566163</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6683989730916056</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6297702925215514</v>
+        <v>0.6313338623848396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.702976801909726</v>
+        <v>0.7049955086267289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>659</v>
@@ -1693,19 +1693,19 @@
         <v>516959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>491351</v>
+        <v>493246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>544254</v>
+        <v>540282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6370133722068625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6054579315553723</v>
+        <v>0.6077926253873603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6706463702098882</v>
+        <v>0.6657519055633296</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1089</v>
@@ -1714,19 +1714,19 @@
         <v>1053732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1013404</v>
+        <v>1009905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1092794</v>
+        <v>1091114</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6526239164905063</v>
+        <v>0.6526239164905064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6276468871574228</v>
+        <v>0.625479632299362</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6768165498451976</v>
+        <v>0.675776271816247</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>59057</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44689</v>
+        <v>46487</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75547</v>
+        <v>78528</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05964987108318417</v>
+        <v>0.05964987108318416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04513783006884098</v>
+        <v>0.04695319734167312</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07630514853363923</v>
+        <v>0.07931601561254266</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1839,19 +1839,19 @@
         <v>59533</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47562</v>
+        <v>46022</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74761</v>
+        <v>75289</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05329898237553653</v>
+        <v>0.05329898237553652</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04258089304732261</v>
+        <v>0.04120222855557798</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06693184204969463</v>
+        <v>0.06740472181479003</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -1860,19 +1860,19 @@
         <v>118590</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99327</v>
+        <v>99624</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140805</v>
+        <v>140835</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05628316843614226</v>
+        <v>0.05628316843614227</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04714048876938765</v>
+        <v>0.04728159227937298</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06682610930433858</v>
+        <v>0.06684043888232982</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>33453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23874</v>
+        <v>23641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46009</v>
+        <v>47733</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0337888536242348</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02411352294559648</v>
+        <v>0.02387800464561072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0464708009091122</v>
+        <v>0.04821226147478511</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1910,19 +1910,19 @@
         <v>35521</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26573</v>
+        <v>27255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48063</v>
+        <v>47363</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03180151102050359</v>
+        <v>0.03180151102050358</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02379041282657812</v>
+        <v>0.02440088464328505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04302969062264433</v>
+        <v>0.04240332881531818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -1931,19 +1931,19 @@
         <v>68974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56969</v>
+        <v>54684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86445</v>
+        <v>86299</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03273533309938225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02703743286354866</v>
+        <v>0.02595322424248048</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04102679994327928</v>
+        <v>0.04095779207820595</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>265219</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>238547</v>
+        <v>237584</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>295146</v>
+        <v>292256</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2678812110888952</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.240941159002753</v>
+        <v>0.2399688322722652</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2981088098809397</v>
+        <v>0.295189697174443</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>490</v>
@@ -1981,19 +1981,19 @@
         <v>334435</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>309389</v>
+        <v>308586</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>360542</v>
+        <v>363812</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2994124333261215</v>
+        <v>0.2994124333261216</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2769898337223868</v>
+        <v>0.2762703311045289</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.322785612283237</v>
+        <v>0.3257136412907073</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>808</v>
@@ -2002,19 +2002,19 @@
         <v>599654</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>562606</v>
+        <v>564753</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>637762</v>
+        <v>639036</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2845963913191368</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2670133982459873</v>
+        <v>0.2680324015904508</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3026824195114597</v>
+        <v>0.3032873334397965</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>632333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>602090</v>
+        <v>600261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>663426</v>
+        <v>661440</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6386800642036858</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6081337965734636</v>
+        <v>0.606285857498254</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6700855911489191</v>
+        <v>0.668079500071828</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>942</v>
@@ -2052,19 +2052,19 @@
         <v>687481</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>657760</v>
+        <v>655012</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>714156</v>
+        <v>715137</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6154870732778384</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5888791925961309</v>
+        <v>0.5864183422793224</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6393693823715212</v>
+        <v>0.6402469207474524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1532</v>
@@ -2073,19 +2073,19 @@
         <v>1319813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1277288</v>
+        <v>1276799</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1358192</v>
+        <v>1358793</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6263851071453388</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6062023312840692</v>
+        <v>0.605970569584999</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6445997157418709</v>
+        <v>0.6448848082801588</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>285161</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>246936</v>
+        <v>250475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>320363</v>
+        <v>323397</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08071894945415101</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06989871692974918</v>
+        <v>0.07090074810509962</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09068343119434799</v>
+        <v>0.09154239140937759</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>373</v>
@@ -2198,19 +2198,19 @@
         <v>294975</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>265694</v>
+        <v>264351</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>329148</v>
+        <v>326667</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07906719728537244</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07121867269180368</v>
+        <v>0.07085854056015388</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08822722806564472</v>
+        <v>0.08756231283680402</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>631</v>
@@ -2219,19 +2219,19 @@
         <v>580135</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>532400</v>
+        <v>529642</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>632121</v>
+        <v>630328</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07987056916194914</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07329858234512182</v>
+        <v>0.07291877510526135</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08702769149544425</v>
+        <v>0.08678081593789939</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>98401</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81126</v>
+        <v>79264</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>121812</v>
+        <v>119736</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02785371463363655</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.022963991835714</v>
+        <v>0.02243674669061251</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03448076357481694</v>
+        <v>0.03389301854061931</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2269,19 +2269,19 @@
         <v>120063</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101398</v>
+        <v>103197</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>140047</v>
+        <v>140092</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03218247259935607</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02717953796089948</v>
+        <v>0.02766169534443053</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03753923881723468</v>
+        <v>0.0375512086139887</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>265</v>
@@ -2290,19 +2290,19 @@
         <v>218463</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>191891</v>
+        <v>193125</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>246289</v>
+        <v>247055</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03007707054455624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02641874919268316</v>
+        <v>0.02658859915171955</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03390798723617715</v>
+        <v>0.03401346090040355</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>831009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>776798</v>
+        <v>779650</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>881590</v>
+        <v>883099</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2352292828013118</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2198841835059729</v>
+        <v>0.2206913617279007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.24954705738265</v>
+        <v>0.2499742219065162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1537</v>
@@ -2340,19 +2340,19 @@
         <v>998074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>948397</v>
+        <v>952348</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1043027</v>
+        <v>1045928</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2675310939620902</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2542152859736723</v>
+        <v>0.2552744445814856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2795805849879974</v>
+        <v>0.2803582729269598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2464</v>
@@ -2361,19 +2361,19 @@
         <v>1829083</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1758385</v>
+        <v>1763522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1898449</v>
+        <v>1901679</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2518202826554213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2420869555718708</v>
+        <v>0.2427941218921436</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2613703895275438</v>
+        <v>0.2618149754915883</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2318192</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2258465</v>
+        <v>2255003</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2378866</v>
+        <v>2381575</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6561980531109008</v>
+        <v>0.6561980531109007</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6392916697871216</v>
+        <v>0.6383117163719453</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6733728373160744</v>
+        <v>0.6741396915483043</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3282</v>
@@ -2411,19 +2411,19 @@
         <v>2317572</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2260312</v>
+        <v>2264494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2371806</v>
+        <v>2368813</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6212192361531814</v>
+        <v>0.6212192361531813</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6058707148010496</v>
+        <v>0.6069919319848226</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6357566221422354</v>
+        <v>0.6349541661659661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5372</v>
@@ -2432,19 +2432,19 @@
         <v>4635764</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4556577</v>
+        <v>4557890</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4712946</v>
+        <v>4713850</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6382320776380734</v>
+        <v>0.6382320776380732</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6273299571471361</v>
+        <v>0.6275108089284961</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6488582861674296</v>
+        <v>0.6489827016956685</v>
       </c>
     </row>
     <row r="28">
